--- a/ozone/multistate/MAE_stacked_VTZP_MS_2.xlsx
+++ b/ozone/multistate/MAE_stacked_VTZP_MS_2.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1281869883280389</v>
+        <v>0.1220742658255628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.67721466774975</v>
+        <v>1.704706951522408</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1459241068214443</v>
+        <v>0.1373978237948886</v>
       </c>
       <c r="C3" t="n">
-        <v>2.359987862430676</v>
+        <v>2.384842076529886</v>
       </c>
     </row>
   </sheetData>
